--- a/后端/res_file/spide_data/编程语言/2025032614/编程语言_python/BV1qW4y1a7fU_黑马程序员python教程8天python从入门到精通学python看这套就够了_2025032614.xlsx
+++ b/后端/res_file/spide_data/编程语言/2025032614/编程语言_python/BV1qW4y1a7fU_黑马程序员python教程8天python从入门到精通学python看这套就够了_2025032614.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="185">
   <si>
     <t>bvid</t>
   </si>
@@ -46,46 +46,166 @@
     <t>time</t>
   </si>
   <si>
+    <t>emotion</t>
+  </si>
+  <si>
     <t>BV1qW4y1a7fU</t>
   </si>
   <si>
-    <t>1366721937</t>
-  </si>
-  <si>
     <t>烦猜想</t>
   </si>
   <si>
+    <t>静有庭树</t>
+  </si>
+  <si>
+    <t>鲁子Jack</t>
+  </si>
+  <si>
+    <t>chinfayo</t>
+  </si>
+  <si>
+    <t>plzlxr</t>
+  </si>
+  <si>
+    <t>空中-sky</t>
+  </si>
+  <si>
+    <t>斩林轻水</t>
+  </si>
+  <si>
+    <t>明雨秋霜</t>
+  </si>
+  <si>
+    <t>楊飏啊</t>
+  </si>
+  <si>
+    <t>Qmw-</t>
+  </si>
+  <si>
+    <t>沃是帅比</t>
+  </si>
+  <si>
+    <t>云逐月下</t>
+  </si>
+  <si>
+    <t>顾德勒</t>
+  </si>
+  <si>
+    <t>風に漂う</t>
+  </si>
+  <si>
+    <t>牛掰拉夫斯基</t>
+  </si>
+  <si>
+    <t>绘梨衣的墨龙渊</t>
+  </si>
+  <si>
+    <t>ghosey</t>
+  </si>
+  <si>
+    <t>朝夕异人之下</t>
+  </si>
+  <si>
+    <t>bili_82078061870</t>
+  </si>
+  <si>
+    <t>bili_45809971530</t>
+  </si>
+  <si>
+    <t>咔嘎米</t>
+  </si>
+  <si>
+    <t>等吃完冰棍</t>
+  </si>
+  <si>
+    <t>你听得到心雨中的暗号</t>
+  </si>
+  <si>
+    <t>念念相忘63</t>
+  </si>
+  <si>
+    <t>朴成训的正牌女友</t>
+  </si>
+  <si>
+    <t>乄辰心</t>
+  </si>
+  <si>
+    <t>青丶兀</t>
+  </si>
+  <si>
+    <t>_玖违</t>
+  </si>
+  <si>
+    <t>墨翊流光</t>
+  </si>
+  <si>
+    <t>你会唱小星星ma-</t>
+  </si>
+  <si>
+    <t>Designerdaodao</t>
+  </si>
+  <si>
+    <t>雅馨00001</t>
+  </si>
+  <si>
+    <t>allbered</t>
+  </si>
+  <si>
+    <t>内个黑狗真黑</t>
+  </si>
+  <si>
+    <t>第二小分队</t>
+  </si>
+  <si>
+    <t>illopn</t>
+  </si>
+  <si>
+    <t>bili_40970996184</t>
+  </si>
+  <si>
+    <t>和高三死磕到底</t>
+  </si>
+  <si>
+    <t>kunununununun</t>
+  </si>
+  <si>
+    <t>空耳听风1号</t>
+  </si>
+  <si>
+    <t>kansine0302</t>
+  </si>
+  <si>
+    <t>likaqua</t>
+  </si>
+  <si>
+    <t>我与夏风皆过客1005X0805</t>
+  </si>
+  <si>
+    <t>咯提副主任</t>
+  </si>
+  <si>
+    <t>Joker__大魔王</t>
+  </si>
+  <si>
+    <t>缘在江湖</t>
+  </si>
+  <si>
     <t>保密</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>未知</t>
   </si>
   <si>
     <t>p145联系案例_1</t>
   </si>
   <si>
-    <t>2025-03-26 11:56:45</t>
-  </si>
-  <si>
-    <t>507496017</t>
-  </si>
-  <si>
-    <t>静有庭树</t>
-  </si>
-  <si>
     <t>P114的练习题，可以看看我这一个</t>
-  </si>
-  <si>
-    <t>2025-03-26 01:21:58</t>
-  </si>
-  <si>
-    <t>520620473</t>
-  </si>
-  <si>
-    <t>鲁子Jack</t>
-  </si>
-  <si>
-    <t>男</t>
   </si>
   <si>
     <t>#p114课后练习
@@ -94,37 +214,10 @@
         sel...</t>
   </si>
   <si>
-    <t>2025-03-25 21:05:50</t>
-  </si>
-  <si>
-    <t>660508270</t>
-  </si>
-  <si>
-    <t>chinfayo</t>
-  </si>
-  <si>
     <t>p102 生成折线图</t>
   </si>
   <si>
-    <t>2025-03-25 20:52:36</t>
-  </si>
-  <si>
-    <t>176524060</t>
-  </si>
-  <si>
-    <t>plzlxr</t>
-  </si>
-  <si>
     <t>我的ATM综合案例：</t>
-  </si>
-  <si>
-    <t>2025-03-25 19:31:19</t>
-  </si>
-  <si>
-    <t>1319675148</t>
-  </si>
-  <si>
-    <t>空中-sky</t>
   </si>
   <si>
     <t>打卡.12 
@@ -136,21 +229,9 @@
 print(f"{name}中共含有：{count}个字母a")</t>
   </si>
   <si>
-    <t>2025-03-25 18:27:34</t>
-  </si>
-  <si>
     <t>p138
 第二阶段-第二章-12作业
 通过python读取数据库中的数据并写入到txt文本中</t>
-  </si>
-  <si>
-    <t>2025-03-25 18:19:21</t>
-  </si>
-  <si>
-    <t>170477948</t>
-  </si>
-  <si>
-    <t>斩林轻水</t>
   </si>
   <si>
     <t>p114
@@ -161,97 +242,28 @@
     def __init__(self,name...</t>
   </si>
   <si>
-    <t>2025-03-25 17:30:34</t>
-  </si>
-  <si>
-    <t>1522393568</t>
-  </si>
-  <si>
-    <t>明雨秋霜</t>
-  </si>
-  <si>
     <t>专科零基础要参加蓝桥杯，python要学到什么程度</t>
   </si>
   <si>
-    <t>2025-03-25 16:11:35</t>
-  </si>
-  <si>
-    <t>380756738</t>
-  </si>
-  <si>
-    <t>楊飏啊</t>
-  </si>
-  <si>
     <t>f-str ing可以控制精度哇</t>
   </si>
   <si>
-    <t>2025-03-25 11:41:58</t>
-  </si>
-  <si>
-    <t>1280691044</t>
-  </si>
-  <si>
-    <t>Qmw-</t>
-  </si>
-  <si>
     <t>请问为啥randint这里会标黄呀，运行的话还有问题[黑眼圈_金箍]</t>
   </si>
   <si>
-    <t>2025-03-25 10:04:01</t>
-  </si>
-  <si>
-    <t>1208469252</t>
-  </si>
-  <si>
-    <t>沃是帅比</t>
-  </si>
-  <si>
     <t>各位大佬们请问我这个问题如何解决？我是小白</t>
   </si>
   <si>
-    <t>2025-03-24 22:41:55</t>
-  </si>
-  <si>
     <t>关于视频的P97。假如你跟着老师在cmd里面安装了numpy的包，但是在pycharm里面却看不到这个包，那么有很大可能是因为你的pycharm里面的项目文件是虚拟环境，而你在cmd里面安装的numpy包安装在全局环境。解决办法是在pycharm内置的cmd终端使用numpy包的安装命令（这样numpy包就会安装在虚拟环境里面），或者直接跟着老师的视频，用pycharm自带的安装。</t>
   </si>
   <si>
-    <t>2025-03-24 22:30:45</t>
-  </si>
-  <si>
-    <t>628375032</t>
-  </si>
-  <si>
-    <t>云逐月下</t>
-  </si>
-  <si>
     <t>双非本科，学校没社交没考证没经验，学的能源化学专业（今年这专业撤了招不到人合并到化工与爆破专业了），学这个有出路吗？我之前去过化工厂做了两个多月普通操作工，有时候搞机器有时候在中控室一直盯着电脑看数据，因为受不了倒班和长时间盯着屏幕容易干眼。</t>
   </si>
   <si>
-    <t>2025-03-24 20:22:19</t>
-  </si>
-  <si>
-    <t>1212014035</t>
-  </si>
-  <si>
-    <t>顾德勒</t>
-  </si>
-  <si>
     <t>这是什么意思</t>
   </si>
   <si>
-    <t>2025-03-24 19:10:22</t>
-  </si>
-  <si>
     <t>split自动把空格消除了</t>
-  </si>
-  <si>
-    <t>2025-03-24 18:12:00</t>
-  </si>
-  <si>
-    <t>20714076</t>
-  </si>
-  <si>
-    <t>風に漂う</t>
   </si>
   <si>
     <t>user_str=input("please input some str:")
@@ -267,55 +279,16 @@
 # str_reverse(user_str)</t>
   </si>
   <si>
-    <t>2025-03-24 17:14:53</t>
-  </si>
-  <si>
-    <t>430122610</t>
-  </si>
-  <si>
-    <t>牛掰拉夫斯基</t>
-  </si>
-  <si>
     <t>学习第一天打卡</t>
   </si>
   <si>
-    <t>2025-03-24 16:13:22</t>
-  </si>
-  <si>
-    <t>1862956846</t>
-  </si>
-  <si>
-    <t>绘梨衣的墨龙渊</t>
-  </si>
-  <si>
     <t>input语句练习作业</t>
   </si>
   <si>
-    <t>2025-03-24 15:47:23</t>
-  </si>
-  <si>
-    <t>3493107188369411</t>
-  </si>
-  <si>
-    <t>ghosey</t>
-  </si>
-  <si>
     <t>P87 为什么这样将文章内容按"，"split之后统计不到空格的数量了</t>
   </si>
   <si>
-    <t>2025-03-24 15:13:31</t>
-  </si>
-  <si>
     <t>P90，我记得这样写会更好</t>
-  </si>
-  <si>
-    <t>2025-03-23 22:49:50</t>
-  </si>
-  <si>
-    <t>453988971</t>
-  </si>
-  <si>
-    <t>朝夕异人之下</t>
   </si>
   <si>
     <t>#定义一个自变量
@@ -329,15 +302,6 @@
 """
 money=money-10-5
 print("还剩多少："，“元”，money)</t>
-  </si>
-  <si>
-    <t>2025-03-23 21:00:13</t>
-  </si>
-  <si>
-    <t>3546791054150139</t>
-  </si>
-  <si>
-    <t>bili_82078061870</t>
   </si>
   <si>
     <t>[doge_金箍]import random#导入随机数模块
@@ -358,39 +322,12 @@
 print(f'您总共猜了{count}次')#最后输出用户输入的次数</t>
   </si>
   <si>
-    <t>2025-03-23 19:58:15</t>
-  </si>
-  <si>
-    <t>3493074843994467</t>
-  </si>
-  <si>
-    <t>bili_45809971530</t>
-  </si>
-  <si>
     <t>想知道类与对象是哪一章啊</t>
-  </si>
-  <si>
-    <t>2025-03-23 17:54:22</t>
-  </si>
-  <si>
-    <t>1028244589</t>
-  </si>
-  <si>
-    <t>咔嘎米</t>
   </si>
   <si>
     <t>全国疫情省份名不对的可以试一下我写的死办法
 代码如下:
 if province_data【"name"】 == "北京" or province_data【"name"】 == "天津" or province_data【"name"】 == "上海" or province_data【"name"】 == "重庆":province_data【"name"】 += "市"elif province_data【"name"】 == "内蒙古" or province_data【"name"】 == "西藏":province_data【"name"】 += "自治区"elif province_data【"name"】 == "宁夏":province_data【"name"】 += "回族自治区"elif province_data【"name"】 == "广西":province_data【"name"】 += "壮族自治区"elif province_data【"name"】 == "新疆":province_data【"name"】 += "维吾尔自治区"elif province_data【"name"】 == "香港" or province_data【"name"】 == "澳门":province_data【"name"】 += "特别行政区"else:province_data【"name"】 += "省"</t>
-  </si>
-  <si>
-    <t>2025-03-23 17:29:10</t>
-  </si>
-  <si>
-    <t>389140424</t>
-  </si>
-  <si>
-    <t>等吃完冰棍</t>
   </si>
   <si>
     <t>第四章猜数字
@@ -412,48 +349,15 @@
 # print("猜对了！猜了%d次"%i)</t>
   </si>
   <si>
-    <t>2025-03-23 16:51:18</t>
-  </si>
-  <si>
-    <t>650904081</t>
-  </si>
-  <si>
-    <t>你听得到心雨中的暗号</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
     <t>[老鼠]文科生，2天空闲的时间看到了11集，跟大佬比只能算小喽啰。老师讲的真的很好很细心，我这种0基础都会。实操真的很重要，之前只是记笔记根本没有用。还是得实践出真知。
 说真的学这个比学专业课有趣多了，坚持坚持，半个月内学完[无限暖暖_袜袜羊][无限暖暖_袜袜羊]
 另外求教材和练习题推荐，当然期间也会问ai题目。</t>
   </si>
   <si>
-    <t>2025-03-23 16:13:03</t>
-  </si>
-  <si>
-    <t>3546740309363547</t>
-  </si>
-  <si>
-    <t>念念相忘63</t>
-  </si>
-  <si>
     <t>这个第十章看不懂咋办，[大哭][大哭]</t>
   </si>
   <si>
-    <t>2025-03-23 15:42:55</t>
-  </si>
-  <si>
-    <t>517733908</t>
-  </si>
-  <si>
-    <t>朴成训的正牌女友</t>
-  </si>
-  <si>
     <t>谁能给我发一下数据资料就是生成折线图那块的</t>
-  </si>
-  <si>
-    <t>2025-03-23 15:31:59</t>
   </si>
   <si>
     <t>import random
@@ -468,19 +372,7 @@
     print('三次全部猜错啦！')</t>
   </si>
   <si>
-    <t>2025-03-23 15:28:44</t>
-  </si>
-  <si>
-    <t>356006031</t>
-  </si>
-  <si>
-    <t>乄辰心</t>
-  </si>
-  <si>
     <t>if语句作业</t>
-  </si>
-  <si>
-    <t>2025-03-23 15:13:58</t>
   </si>
   <si>
     <t>age = 19
@@ -502,9 +394,6 @@
     print('抱歉，您的年零太小，不在领取礼物范围')</t>
   </si>
   <si>
-    <t>2025-03-23 15:05:16</t>
-  </si>
-  <si>
     <t>if int(input('您的身高是多少:'))&gt;120:
     print('您的身高超出限制，无法免费')
     print('如果您的VIP在3级以上，可免费游玩')
@@ -516,9 +405,6 @@
     print('祝您游玩愉快！')</t>
   </si>
   <si>
-    <t>2025-03-23 14:47:41</t>
-  </si>
-  <si>
     <t>if int(input('猜猜我的幸运数字是:'))==10:
     print('哈哈，猜对啦！牛')
 elif int(input('猜错了, 再猜最后一次:'))==10:
@@ -527,9 +413,6 @@
     print('恭喜！终于猜对了')
 else:
     print('sorry,全部猜错了,我想的是:10')</t>
-  </si>
-  <si>
-    <t>2025-03-23 14:16:41</t>
   </si>
   <si>
     <t>print('欢迎来到黑马动物园')
@@ -544,9 +427,6 @@
 print('祝您游玩愉快!')</t>
   </si>
   <si>
-    <t>2025-03-23 13:46:27</t>
-  </si>
-  <si>
     <t>print('欢迎来到黑马动物园')
 height=int(input('请输入您的身高(cm):'))
 if height&gt;=120:
@@ -554,15 +434,6 @@
 else:
     print('您的身高未超出120cm，可以免费游玩')
 print('祝您游玩愉快!')</t>
-  </si>
-  <si>
-    <t>2025-03-23 13:31:08</t>
-  </si>
-  <si>
-    <t>3493135283915391</t>
-  </si>
-  <si>
-    <t>青丶兀</t>
   </si>
   <si>
     <t>name = "传智播客"
@@ -575,9 +446,6 @@
 print(message)</t>
   </si>
   <si>
-    <t>2025-03-23 12:58:07</t>
-  </si>
-  <si>
     <t>print('欢迎来到黑马游乐场，儿童免费，成人收费.')
 age=int(input('请输入您的年龄:'))
 if age&gt;=18:
@@ -588,15 +456,9 @@
     print('祝您游玩愉快!')</t>
   </si>
   <si>
-    <t>2025-03-23 12:53:16</t>
-  </si>
-  <si>
     <t>user_name=input('请输入您的用户名:')
 user_type=input('请输入您的用户类型:')
 print(f'您好:{user_name},您是尊贵的:{user_type}用户，欢迎您的光临。')</t>
-  </si>
-  <si>
-    <t>2025-03-23 12:24:58</t>
   </si>
   <si>
     <t>name='东方智能'
@@ -607,15 +469,6 @@
 seven=stock_price*(tiock_price_daily_factor**gorwth_days)
 print(f'公司:{name},股票代码:{stock_code},当前股价:{stock_price}')
 print('每日增长系数是:%.1f,经过%d天的增长后,股价达到了:%.2f'%(tiock_price_daily_factor,gorwth_days,seven))</t>
-  </si>
-  <si>
-    <t>2025-03-23 11:32:21</t>
-  </si>
-  <si>
-    <t>1958656981</t>
-  </si>
-  <si>
-    <t>_玖违</t>
   </si>
   <si>
     <t>#发工资
@@ -633,25 +486,7 @@
         break</t>
   </si>
   <si>
-    <t>2025-03-23 11:32:17</t>
-  </si>
-  <si>
-    <t>483736708</t>
-  </si>
-  <si>
-    <t>墨翊流光</t>
-  </si>
-  <si>
     <t>up主的代码有一个问题，就是余额不足时，因为分数小于5，所以满足条件的员工会接着显示，所以要改一下，在循环开始前先判断公司余额[打call]</t>
-  </si>
-  <si>
-    <t>2025-03-22 23:11:54</t>
-  </si>
-  <si>
-    <t>229714771</t>
-  </si>
-  <si>
-    <t>你会唱小星星ma-</t>
   </si>
   <si>
     <t># 计算程序练习
@@ -663,15 +498,6 @@
 print(f'''
 公司：{name}，股票代码：{stock_code}，当前股价：{stock_price}
 每日增长系数是：%.1f，经过%d天的增长后，股价达到了%.2f''' % (stock_price_daily_growth_factor,growth_days,stock_price*stock_price_daily_growth_factor**growth_days))</t>
-  </si>
-  <si>
-    <t>2025-03-22 22:40:24</t>
-  </si>
-  <si>
-    <t>444784149</t>
-  </si>
-  <si>
-    <t>Designerdaodao</t>
   </si>
   <si>
     <t>import random
@@ -689,9 +515,6 @@
         print("你猜测的数字小了！")
 else:
     print("哈哈，三次都没有猜中。")</t>
-  </si>
-  <si>
-    <t>2025-03-22 22:35:00</t>
   </si>
   <si>
     <t>print("公司要发礼物！")
@@ -713,73 +536,19 @@
     print("未成年人，不能领取！")</t>
   </si>
   <si>
-    <t>2025-03-22 22:07:45</t>
-  </si>
-  <si>
-    <t>3546859536648536</t>
-  </si>
-  <si>
-    <t>雅馨00001</t>
-  </si>
-  <si>
     <t>老师，帮我看下，为什么我的time.sleep会报错，是需要我安装并导入软件包'time'吗？</t>
   </si>
   <si>
-    <t>2025-03-22 21:41:18</t>
-  </si>
-  <si>
-    <t>3494363021707598</t>
-  </si>
-  <si>
-    <t>allbered</t>
-  </si>
-  <si>
     <t>谁有全国疫情数据，求</t>
   </si>
   <si>
-    <t>2025-03-22 21:08:12</t>
-  </si>
-  <si>
-    <t>3546597457660107</t>
-  </si>
-  <si>
-    <t>内个黑狗真黑</t>
-  </si>
-  <si>
     <t>请问这里哪错了，感谢大佬</t>
   </si>
   <si>
-    <t>2025-03-22 19:04:56</t>
-  </si>
-  <si>
-    <t>240143740</t>
-  </si>
-  <si>
-    <t>第二小分队</t>
-  </si>
-  <si>
     <t>这个系列还更新吗？看到递归就没有了</t>
   </si>
   <si>
-    <t>2025-03-22 18:28:49</t>
-  </si>
-  <si>
-    <t>455624019</t>
-  </si>
-  <si>
-    <t>illopn</t>
-  </si>
-  <si>
     <t>不干大数据的是不是第三阶段就不用学了啊</t>
-  </si>
-  <si>
-    <t>2025-03-22 17:05:57</t>
-  </si>
-  <si>
-    <t>3493132465342928</t>
-  </si>
-  <si>
-    <t>bili_40970996184</t>
   </si>
   <si>
     <t>PPT124的作业咋不讲捏！。。。。
@@ -806,61 +575,16 @@
 有没有老哥大概给看下可行不</t>
   </si>
   <si>
-    <t>2025-03-22 16:51:53</t>
-  </si>
-  <si>
-    <t>646535130</t>
-  </si>
-  <si>
-    <t>和高三死磕到底</t>
-  </si>
-  <si>
     <t>为什么我会报错[大哭]</t>
   </si>
   <si>
-    <t>2025-03-22 16:13:12</t>
-  </si>
-  <si>
-    <t>3546867323373863</t>
-  </si>
-  <si>
-    <t>kunununununun</t>
-  </si>
-  <si>
     <t>用逗号也可以进行拼接吧</t>
   </si>
   <si>
-    <t>2025-03-22 14:34:28</t>
-  </si>
-  <si>
-    <t>1275212658</t>
-  </si>
-  <si>
-    <t>空耳听风1号</t>
-  </si>
-  <si>
     <t>我这个是不是也可以啊@黑马程序员</t>
   </si>
   <si>
-    <t>2025-03-22 13:33:13</t>
-  </si>
-  <si>
-    <t>488160511</t>
-  </si>
-  <si>
-    <t>kansine0302</t>
-  </si>
-  <si>
     <t>领取资源</t>
-  </si>
-  <si>
-    <t>2025-03-22 13:20:14</t>
-  </si>
-  <si>
-    <t>452106815</t>
-  </si>
-  <si>
-    <t>likaqua</t>
   </si>
   <si>
     <t>list_1 = 【1,2,3,4,5,6,7,8,9,10】list_2 = 【】
@@ -877,15 +601,6 @@
 print(f"通过for循环，从列表：{list_1}中取出偶数，组成新列表：{list_3}")</t>
   </si>
   <si>
-    <t>2025-03-22 00:09:35</t>
-  </si>
-  <si>
-    <t>3433244</t>
-  </si>
-  <si>
-    <t>我与夏风皆过客1005X0805</t>
-  </si>
-  <si>
     <t>money = 10000  #奖金总额10000元
 count = 0 #发奖金次数
 for x in range(1, 21): #员工编号1-20，编号从1开始
@@ -900,26 +615,8 @@
         print(f"第{x}号职员，绩效分为{num},没有奖金")  交作业</t>
   </si>
   <si>
-    <t>2025-03-21 23:23:56</t>
-  </si>
-  <si>
-    <t>3546852949493988</t>
-  </si>
-  <si>
-    <t>咯提副主任</t>
-  </si>
-  <si>
     <t>哪位大神知道
 给的代码文件怎么用在   pacharm软件里   老师讲的课后作业代码不会用   求解答</t>
-  </si>
-  <si>
-    <t>2025-03-21 22:07:35</t>
-  </si>
-  <si>
-    <t>364289427</t>
-  </si>
-  <si>
-    <t>Joker__大魔王</t>
   </si>
   <si>
     <t>print("欢迎来到梦龙游乐园")
@@ -930,27 +627,212 @@
     print("您的身高不足120cm,游玩不需要购票")print("祝您玩的开心！")</t>
   </si>
   <si>
+    <t>这个还是有点难度的</t>
+  </si>
+  <si>
+    <t>2025-03-26 11:56:45</t>
+  </si>
+  <si>
+    <t>2025-03-26 01:21:58</t>
+  </si>
+  <si>
+    <t>2025-03-25 21:05:50</t>
+  </si>
+  <si>
+    <t>2025-03-25 20:52:36</t>
+  </si>
+  <si>
+    <t>2025-03-25 19:31:19</t>
+  </si>
+  <si>
+    <t>2025-03-25 18:27:34</t>
+  </si>
+  <si>
+    <t>2025-03-25 18:19:21</t>
+  </si>
+  <si>
+    <t>2025-03-25 17:30:34</t>
+  </si>
+  <si>
+    <t>2025-03-25 16:11:35</t>
+  </si>
+  <si>
+    <t>2025-03-25 11:41:58</t>
+  </si>
+  <si>
+    <t>2025-03-25 10:04:01</t>
+  </si>
+  <si>
+    <t>2025-03-24 22:41:55</t>
+  </si>
+  <si>
+    <t>2025-03-24 22:30:45</t>
+  </si>
+  <si>
+    <t>2025-03-24 20:22:19</t>
+  </si>
+  <si>
+    <t>2025-03-24 19:10:22</t>
+  </si>
+  <si>
+    <t>2025-03-24 18:12:00</t>
+  </si>
+  <si>
+    <t>2025-03-24 17:14:53</t>
+  </si>
+  <si>
+    <t>2025-03-24 16:13:22</t>
+  </si>
+  <si>
+    <t>2025-03-24 15:47:23</t>
+  </si>
+  <si>
+    <t>2025-03-24 15:13:31</t>
+  </si>
+  <si>
+    <t>2025-03-23 22:49:50</t>
+  </si>
+  <si>
+    <t>2025-03-23 21:00:13</t>
+  </si>
+  <si>
+    <t>2025-03-23 19:58:15</t>
+  </si>
+  <si>
+    <t>2025-03-23 17:54:22</t>
+  </si>
+  <si>
+    <t>2025-03-23 17:29:10</t>
+  </si>
+  <si>
+    <t>2025-03-23 16:51:18</t>
+  </si>
+  <si>
+    <t>2025-03-23 16:13:03</t>
+  </si>
+  <si>
+    <t>2025-03-23 15:42:55</t>
+  </si>
+  <si>
+    <t>2025-03-23 15:31:59</t>
+  </si>
+  <si>
+    <t>2025-03-23 15:28:44</t>
+  </si>
+  <si>
+    <t>2025-03-23 15:13:58</t>
+  </si>
+  <si>
+    <t>2025-03-23 15:05:16</t>
+  </si>
+  <si>
+    <t>2025-03-23 14:47:41</t>
+  </si>
+  <si>
+    <t>2025-03-23 14:16:41</t>
+  </si>
+  <si>
+    <t>2025-03-23 13:46:27</t>
+  </si>
+  <si>
+    <t>2025-03-23 13:31:08</t>
+  </si>
+  <si>
+    <t>2025-03-23 12:58:07</t>
+  </si>
+  <si>
+    <t>2025-03-23 12:53:16</t>
+  </si>
+  <si>
+    <t>2025-03-23 12:24:58</t>
+  </si>
+  <si>
+    <t>2025-03-23 11:32:21</t>
+  </si>
+  <si>
+    <t>2025-03-23 11:32:17</t>
+  </si>
+  <si>
+    <t>2025-03-22 23:11:54</t>
+  </si>
+  <si>
+    <t>2025-03-22 22:40:24</t>
+  </si>
+  <si>
+    <t>2025-03-22 22:35:00</t>
+  </si>
+  <si>
+    <t>2025-03-22 22:07:45</t>
+  </si>
+  <si>
+    <t>2025-03-22 21:41:18</t>
+  </si>
+  <si>
+    <t>2025-03-22 21:08:12</t>
+  </si>
+  <si>
+    <t>2025-03-22 19:04:56</t>
+  </si>
+  <si>
+    <t>2025-03-22 18:28:49</t>
+  </si>
+  <si>
+    <t>2025-03-22 17:05:57</t>
+  </si>
+  <si>
+    <t>2025-03-22 16:51:53</t>
+  </si>
+  <si>
+    <t>2025-03-22 16:13:12</t>
+  </si>
+  <si>
+    <t>2025-03-22 14:34:28</t>
+  </si>
+  <si>
+    <t>2025-03-22 13:33:13</t>
+  </si>
+  <si>
+    <t>2025-03-22 13:20:14</t>
+  </si>
+  <si>
+    <t>2025-03-22 00:09:35</t>
+  </si>
+  <si>
+    <t>2025-03-21 23:23:56</t>
+  </si>
+  <si>
+    <t>2025-03-21 22:07:35</t>
+  </si>
+  <si>
     <t>2025-03-21 21:35:56</t>
   </si>
   <si>
-    <t>477706478</t>
-  </si>
-  <si>
-    <t>缘在江湖</t>
-  </si>
-  <si>
-    <t>这个还是有点难度的</t>
-  </si>
-  <si>
     <t>2025-03-21 20:42:22</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>中性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -966,7 +848,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -974,12 +856,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,1476 +1174,1611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>258722123424</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2">
+        <v>1366721937</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>258700121248</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>507496017</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>258680004416</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="C4">
+        <v>520620473</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>257867335985</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>660508270</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>125</v>
+      </c>
+      <c r="K5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>257860828721</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6">
+        <v>176524060</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>126</v>
+      </c>
+      <c r="K6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>258666516336</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>1319675148</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>127</v>
+      </c>
+      <c r="K7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>258665748464</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
+      <c r="C8">
+        <v>1366721937</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>258661830832</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
+      <c r="C9">
+        <v>170477948</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>257846128545</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="C10">
+        <v>1522393568</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>258638398624</v>
       </c>
-      <c r="C11" t="s">
-        <v>48</v>
+      <c r="C11">
+        <v>380756738</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>258632504448</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
+      <c r="C12">
+        <v>1280691044</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>257798426801</v>
       </c>
-      <c r="C13" t="s">
-        <v>56</v>
+      <c r="C13">
+        <v>1208469252</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>258606118240</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="C14">
+        <v>507496017</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>258595166464</v>
       </c>
-      <c r="C15" t="s">
-        <v>62</v>
+      <c r="C15">
+        <v>628375032</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>258589318992</v>
       </c>
-      <c r="C16" t="s">
-        <v>66</v>
+      <c r="C16">
+        <v>1212014035</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>258584454624</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17">
+        <v>507496017</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>257772376833</v>
       </c>
-      <c r="C18" t="s">
-        <v>72</v>
+      <c r="C18">
+        <v>20714076</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>258576560128</v>
       </c>
-      <c r="C19" t="s">
-        <v>76</v>
+      <c r="C19">
+        <v>430122610</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>258574985296</v>
       </c>
-      <c r="C20" t="s">
-        <v>80</v>
+      <c r="C20">
+        <v>1862956846</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>258573007488</v>
       </c>
-      <c r="C21" t="s">
-        <v>84</v>
+      <c r="C21">
+        <v>3493107188369411</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>258527707568</v>
       </c>
-      <c r="C22" t="s">
-        <v>17</v>
+      <c r="C22">
+        <v>507496017</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>257712470625</v>
       </c>
-      <c r="C23" t="s">
-        <v>90</v>
+      <c r="C23">
+        <v>453988971</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>143</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>258513197376</v>
       </c>
-      <c r="C24" t="s">
-        <v>94</v>
+      <c r="C24">
+        <v>3546791054150139</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>257697816385</v>
       </c>
-      <c r="C25" t="s">
-        <v>98</v>
+      <c r="C25">
+        <v>3493074843994467</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>145</v>
+      </c>
+      <c r="K25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>257696001617</v>
       </c>
-      <c r="C26" t="s">
-        <v>102</v>
+      <c r="C26">
+        <v>1028244589</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>146</v>
+      </c>
+      <c r="K26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>258498264736</v>
       </c>
-      <c r="C27" t="s">
-        <v>106</v>
+      <c r="C27">
+        <v>389140424</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>147</v>
+      </c>
+      <c r="K27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>257690502337</v>
       </c>
-      <c r="C28" t="s">
-        <v>110</v>
+      <c r="C28">
+        <v>650904081</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>258493533456</v>
       </c>
-      <c r="C29" t="s">
-        <v>115</v>
+      <c r="C29">
+        <v>3546740309363547</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>258492630656</v>
       </c>
-      <c r="C30" t="s">
-        <v>119</v>
+      <c r="C30">
+        <v>517733908</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>258492406896</v>
       </c>
-      <c r="C31" t="s">
-        <v>94</v>
+      <c r="C31">
+        <v>3546791054150139</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>151</v>
+      </c>
+      <c r="K31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>258491441520</v>
       </c>
-      <c r="C32" t="s">
-        <v>125</v>
+      <c r="C32">
+        <v>356006031</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>152</v>
+      </c>
+      <c r="K32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>258490636400</v>
       </c>
-      <c r="C33" t="s">
-        <v>94</v>
+      <c r="C33">
+        <v>3546791054150139</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>258489496160</v>
       </c>
-      <c r="C34" t="s">
-        <v>94</v>
+      <c r="C34">
+        <v>3546791054150139</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>258487188240</v>
       </c>
-      <c r="C35" t="s">
-        <v>94</v>
+      <c r="C35">
+        <v>3546791054150139</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>155</v>
+      </c>
+      <c r="K35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>258484851168</v>
       </c>
-      <c r="C36" t="s">
-        <v>94</v>
+      <c r="C36">
+        <v>3546791054150139</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>156</v>
+      </c>
+      <c r="K36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>258483772320</v>
       </c>
-      <c r="C37" t="s">
-        <v>94</v>
+      <c r="C37">
+        <v>3546791054150139</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>157</v>
+      </c>
+      <c r="K37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>257676422961</v>
       </c>
-      <c r="C38" t="s">
-        <v>139</v>
+      <c r="C38">
+        <v>3493135283915391</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>258480494544</v>
       </c>
-      <c r="C39" t="s">
-        <v>94</v>
+      <c r="C39">
+        <v>3546791054150139</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="K39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>258477833152</v>
       </c>
-      <c r="C40" t="s">
-        <v>94</v>
+      <c r="C40">
+        <v>3546791054150139</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>160</v>
+      </c>
+      <c r="K40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>258473275920</v>
       </c>
-      <c r="C41" t="s">
-        <v>94</v>
+      <c r="C41">
+        <v>3546791054150139</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="K41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>257669066289</v>
       </c>
-      <c r="C42" t="s">
-        <v>149</v>
+      <c r="C42">
+        <v>1958656981</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>258440510416</v>
       </c>
-      <c r="C43" t="s">
-        <v>153</v>
+      <c r="C43">
+        <v>483736708</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>257634710369</v>
       </c>
-      <c r="C44" t="s">
-        <v>157</v>
+      <c r="C44">
+        <v>229714771</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>164</v>
+      </c>
+      <c r="K44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>258437083808</v>
       </c>
-      <c r="C45" t="s">
-        <v>161</v>
+      <c r="C45">
+        <v>444784149</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H45" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>165</v>
+      </c>
+      <c r="K45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>258434683248</v>
       </c>
-      <c r="C46" t="s">
-        <v>161</v>
+      <c r="C46">
+        <v>444784149</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2751,485 +2786,533 @@
       <c r="J46" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>258432340752</v>
       </c>
-      <c r="C47" t="s">
-        <v>167</v>
+      <c r="C47">
+        <v>3546859536648536</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>167</v>
+      </c>
+      <c r="K47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>257627049441</v>
       </c>
-      <c r="C48" t="s">
-        <v>171</v>
+      <c r="C48">
+        <v>3494363021707598</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>258419094496</v>
       </c>
-      <c r="C49" t="s">
-        <v>175</v>
+      <c r="C49">
+        <v>3546597457660107</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>169</v>
+      </c>
+      <c r="K49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>258415932320</v>
       </c>
-      <c r="C50" t="s">
-        <v>179</v>
+      <c r="C50">
+        <v>240143740</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>170</v>
+      </c>
+      <c r="K50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>258409068736</v>
       </c>
-      <c r="C51" t="s">
-        <v>183</v>
+      <c r="C51">
+        <v>455624019</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>171</v>
+      </c>
+      <c r="K51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>258408164832</v>
       </c>
-      <c r="C52" t="s">
-        <v>187</v>
+      <c r="C52">
+        <v>3493132465342928</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>172</v>
+      </c>
+      <c r="K52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>258405248560</v>
       </c>
-      <c r="C53" t="s">
-        <v>191</v>
+      <c r="C53">
+        <v>646535130</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>173</v>
+      </c>
+      <c r="K53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>257596969889</v>
       </c>
-      <c r="C54" t="s">
-        <v>195</v>
+      <c r="C54">
+        <v>3546867323373863</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H54" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>174</v>
+      </c>
+      <c r="K54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>257592522689</v>
       </c>
-      <c r="C55" t="s">
-        <v>199</v>
+      <c r="C55">
+        <v>1275212658</v>
       </c>
       <c r="D55" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="K55" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>258393014288</v>
       </c>
-      <c r="C56" t="s">
-        <v>203</v>
+      <c r="C56">
+        <v>488160511</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H56" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>258356626112</v>
       </c>
-      <c r="C57" t="s">
-        <v>207</v>
+      <c r="C57">
+        <v>452106815</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H57" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>177</v>
+      </c>
+      <c r="K57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>258352946160</v>
       </c>
-      <c r="C58" t="s">
-        <v>211</v>
+      <c r="C58">
+        <v>3433244</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H58" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>178</v>
+      </c>
+      <c r="K58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>257546422273</v>
       </c>
-      <c r="C59" t="s">
-        <v>215</v>
+      <c r="C59">
+        <v>3546852949493988</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H59" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>179</v>
+      </c>
+      <c r="K59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>258343476576</v>
       </c>
-      <c r="C60" t="s">
-        <v>219</v>
+      <c r="C60">
+        <v>364289427</v>
       </c>
       <c r="D60" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H60" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>180</v>
+      </c>
+      <c r="K60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>257539354113</v>
       </c>
-      <c r="C61" t="s">
-        <v>223</v>
+      <c r="C61">
+        <v>477706478</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F61">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H61" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>226</v>
+        <v>181</v>
+      </c>
+      <c r="K61" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/后端/res_file/spide_data/编程语言/2025032614/编程语言_python/BV1qW4y1a7fU_黑马程序员python教程8天python从入门到精通学python看这套就够了_2025032614.xlsx
+++ b/后端/res_file/spide_data/编程语言/2025032614/编程语言_python/BV1qW4y1a7fU_黑马程序员python教程8天python从入门到精通学python看这套就够了_2025032614.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="20760" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="187">
   <si>
     <t>bvid</t>
   </si>
@@ -49,163 +62,46 @@
     <t>emotion</t>
   </si>
   <si>
+    <t>platform</t>
+  </si>
+  <si>
     <t>BV1qW4y1a7fU</t>
   </si>
   <si>
     <t>烦猜想</t>
   </si>
   <si>
+    <t>保密</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>p145联系案例_1</t>
+  </si>
+  <si>
+    <t>2025-03-26 11:56:45</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>bilibili</t>
+  </si>
+  <si>
     <t>静有庭树</t>
   </si>
   <si>
+    <t>P114的练习题，可以看看我这一个</t>
+  </si>
+  <si>
+    <t>2025-03-26 01:21:58</t>
+  </si>
+  <si>
     <t>鲁子Jack</t>
   </si>
   <si>
-    <t>chinfayo</t>
-  </si>
-  <si>
-    <t>plzlxr</t>
-  </si>
-  <si>
-    <t>空中-sky</t>
-  </si>
-  <si>
-    <t>斩林轻水</t>
-  </si>
-  <si>
-    <t>明雨秋霜</t>
-  </si>
-  <si>
-    <t>楊飏啊</t>
-  </si>
-  <si>
-    <t>Qmw-</t>
-  </si>
-  <si>
-    <t>沃是帅比</t>
-  </si>
-  <si>
-    <t>云逐月下</t>
-  </si>
-  <si>
-    <t>顾德勒</t>
-  </si>
-  <si>
-    <t>風に漂う</t>
-  </si>
-  <si>
-    <t>牛掰拉夫斯基</t>
-  </si>
-  <si>
-    <t>绘梨衣的墨龙渊</t>
-  </si>
-  <si>
-    <t>ghosey</t>
-  </si>
-  <si>
-    <t>朝夕异人之下</t>
-  </si>
-  <si>
-    <t>bili_82078061870</t>
-  </si>
-  <si>
-    <t>bili_45809971530</t>
-  </si>
-  <si>
-    <t>咔嘎米</t>
-  </si>
-  <si>
-    <t>等吃完冰棍</t>
-  </si>
-  <si>
-    <t>你听得到心雨中的暗号</t>
-  </si>
-  <si>
-    <t>念念相忘63</t>
-  </si>
-  <si>
-    <t>朴成训的正牌女友</t>
-  </si>
-  <si>
-    <t>乄辰心</t>
-  </si>
-  <si>
-    <t>青丶兀</t>
-  </si>
-  <si>
-    <t>_玖违</t>
-  </si>
-  <si>
-    <t>墨翊流光</t>
-  </si>
-  <si>
-    <t>你会唱小星星ma-</t>
-  </si>
-  <si>
-    <t>Designerdaodao</t>
-  </si>
-  <si>
-    <t>雅馨00001</t>
-  </si>
-  <si>
-    <t>allbered</t>
-  </si>
-  <si>
-    <t>内个黑狗真黑</t>
-  </si>
-  <si>
-    <t>第二小分队</t>
-  </si>
-  <si>
-    <t>illopn</t>
-  </si>
-  <si>
-    <t>bili_40970996184</t>
-  </si>
-  <si>
-    <t>和高三死磕到底</t>
-  </si>
-  <si>
-    <t>kunununununun</t>
-  </si>
-  <si>
-    <t>空耳听风1号</t>
-  </si>
-  <si>
-    <t>kansine0302</t>
-  </si>
-  <si>
-    <t>likaqua</t>
-  </si>
-  <si>
-    <t>我与夏风皆过客1005X0805</t>
-  </si>
-  <si>
-    <t>咯提副主任</t>
-  </si>
-  <si>
-    <t>Joker__大魔王</t>
-  </si>
-  <si>
-    <t>缘在江湖</t>
-  </si>
-  <si>
-    <t>保密</t>
-  </si>
-  <si>
     <t>男</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>未知</t>
-  </si>
-  <si>
-    <t>p145联系案例_1</t>
-  </si>
-  <si>
-    <t>P114的练习题，可以看看我这一个</t>
   </si>
   <si>
     <t>#p114课后练习
@@ -214,10 +110,28 @@
         sel...</t>
   </si>
   <si>
+    <t>2025-03-25 21:05:50</t>
+  </si>
+  <si>
+    <t>chinfayo</t>
+  </si>
+  <si>
     <t>p102 生成折线图</t>
   </si>
   <si>
+    <t>2025-03-25 20:52:36</t>
+  </si>
+  <si>
+    <t>plzlxr</t>
+  </si>
+  <si>
     <t>我的ATM综合案例：</t>
+  </si>
+  <si>
+    <t>2025-03-25 19:31:19</t>
+  </si>
+  <si>
+    <t>空中-sky</t>
   </si>
   <si>
     <t>打卡.12 
@@ -229,9 +143,18 @@
 print(f"{name}中共含有：{count}个字母a")</t>
   </si>
   <si>
+    <t>2025-03-25 18:27:34</t>
+  </si>
+  <si>
     <t>p138
 第二阶段-第二章-12作业
 通过python读取数据库中的数据并写入到txt文本中</t>
+  </si>
+  <si>
+    <t>2025-03-25 18:19:21</t>
+  </si>
+  <si>
+    <t>斩林轻水</t>
   </si>
   <si>
     <t>p114
@@ -242,28 +165,79 @@
     def __init__(self,name...</t>
   </si>
   <si>
+    <t>2025-03-25 17:30:34</t>
+  </si>
+  <si>
+    <t>明雨秋霜</t>
+  </si>
+  <si>
     <t>专科零基础要参加蓝桥杯，python要学到什么程度</t>
   </si>
   <si>
+    <t>2025-03-25 16:11:35</t>
+  </si>
+  <si>
+    <t>楊飏啊</t>
+  </si>
+  <si>
     <t>f-str ing可以控制精度哇</t>
   </si>
   <si>
+    <t>2025-03-25 11:41:58</t>
+  </si>
+  <si>
+    <t>Qmw-</t>
+  </si>
+  <si>
     <t>请问为啥randint这里会标黄呀，运行的话还有问题[黑眼圈_金箍]</t>
   </si>
   <si>
+    <t>2025-03-25 10:04:01</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>沃是帅比</t>
+  </si>
+  <si>
     <t>各位大佬们请问我这个问题如何解决？我是小白</t>
   </si>
   <si>
+    <t>2025-03-24 22:41:55</t>
+  </si>
+  <si>
     <t>关于视频的P97。假如你跟着老师在cmd里面安装了numpy的包，但是在pycharm里面却看不到这个包，那么有很大可能是因为你的pycharm里面的项目文件是虚拟环境，而你在cmd里面安装的numpy包安装在全局环境。解决办法是在pycharm内置的cmd终端使用numpy包的安装命令（这样numpy包就会安装在虚拟环境里面），或者直接跟着老师的视频，用pycharm自带的安装。</t>
   </si>
   <si>
+    <t>2025-03-24 22:30:45</t>
+  </si>
+  <si>
+    <t>云逐月下</t>
+  </si>
+  <si>
     <t>双非本科，学校没社交没考证没经验，学的能源化学专业（今年这专业撤了招不到人合并到化工与爆破专业了），学这个有出路吗？我之前去过化工厂做了两个多月普通操作工，有时候搞机器有时候在中控室一直盯着电脑看数据，因为受不了倒班和长时间盯着屏幕容易干眼。</t>
   </si>
   <si>
+    <t>2025-03-24 20:22:19</t>
+  </si>
+  <si>
+    <t>顾德勒</t>
+  </si>
+  <si>
     <t>这是什么意思</t>
   </si>
   <si>
+    <t>2025-03-24 19:10:22</t>
+  </si>
+  <si>
     <t>split自动把空格消除了</t>
+  </si>
+  <si>
+    <t>2025-03-24 18:12:00</t>
+  </si>
+  <si>
+    <t>風に漂う</t>
   </si>
   <si>
     <t>user_str=input("please input some str:")
@@ -279,16 +253,43 @@
 # str_reverse(user_str)</t>
   </si>
   <si>
+    <t>2025-03-24 17:14:53</t>
+  </si>
+  <si>
+    <t>牛掰拉夫斯基</t>
+  </si>
+  <si>
     <t>学习第一天打卡</t>
   </si>
   <si>
+    <t>2025-03-24 16:13:22</t>
+  </si>
+  <si>
+    <t>绘梨衣的墨龙渊</t>
+  </si>
+  <si>
     <t>input语句练习作业</t>
   </si>
   <si>
+    <t>2025-03-24 15:47:23</t>
+  </si>
+  <si>
+    <t>ghosey</t>
+  </si>
+  <si>
     <t>P87 为什么这样将文章内容按"，"split之后统计不到空格的数量了</t>
   </si>
   <si>
+    <t>2025-03-24 15:13:31</t>
+  </si>
+  <si>
     <t>P90，我记得这样写会更好</t>
+  </si>
+  <si>
+    <t>2025-03-23 22:49:50</t>
+  </si>
+  <si>
+    <t>朝夕异人之下</t>
   </si>
   <si>
     <t>#定义一个自变量
@@ -302,6 +303,12 @@
 """
 money=money-10-5
 print("还剩多少："，“元”，money)</t>
+  </si>
+  <si>
+    <t>2025-03-23 21:00:13</t>
+  </si>
+  <si>
+    <t>bili_82078061870</t>
   </si>
   <si>
     <t>[doge_金箍]import random#导入随机数模块
@@ -322,12 +329,30 @@
 print(f'您总共猜了{count}次')#最后输出用户输入的次数</t>
   </si>
   <si>
+    <t>2025-03-23 19:58:15</t>
+  </si>
+  <si>
+    <t>bili_45809971530</t>
+  </si>
+  <si>
     <t>想知道类与对象是哪一章啊</t>
+  </si>
+  <si>
+    <t>2025-03-23 17:54:22</t>
+  </si>
+  <si>
+    <t>咔嘎米</t>
   </si>
   <si>
     <t>全国疫情省份名不对的可以试一下我写的死办法
 代码如下:
 if province_data【"name"】 == "北京" or province_data【"name"】 == "天津" or province_data【"name"】 == "上海" or province_data【"name"】 == "重庆":province_data【"name"】 += "市"elif province_data【"name"】 == "内蒙古" or province_data【"name"】 == "西藏":province_data【"name"】 += "自治区"elif province_data【"name"】 == "宁夏":province_data【"name"】 += "回族自治区"elif province_data【"name"】 == "广西":province_data【"name"】 += "壮族自治区"elif province_data【"name"】 == "新疆":province_data【"name"】 += "维吾尔自治区"elif province_data【"name"】 == "香港" or province_data【"name"】 == "澳门":province_data【"name"】 += "特别行政区"else:province_data【"name"】 += "省"</t>
+  </si>
+  <si>
+    <t>2025-03-23 17:29:10</t>
+  </si>
+  <si>
+    <t>等吃完冰棍</t>
   </si>
   <si>
     <t>第四章猜数字
@@ -349,15 +374,39 @@
 # print("猜对了！猜了%d次"%i)</t>
   </si>
   <si>
+    <t>2025-03-23 16:51:18</t>
+  </si>
+  <si>
+    <t>你听得到心雨中的暗号</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>[老鼠]文科生，2天空闲的时间看到了11集，跟大佬比只能算小喽啰。老师讲的真的很好很细心，我这种0基础都会。实操真的很重要，之前只是记笔记根本没有用。还是得实践出真知。
 说真的学这个比学专业课有趣多了，坚持坚持，半个月内学完[无限暖暖_袜袜羊][无限暖暖_袜袜羊]
 另外求教材和练习题推荐，当然期间也会问ai题目。</t>
   </si>
   <si>
+    <t>2025-03-23 16:13:03</t>
+  </si>
+  <si>
+    <t>念念相忘63</t>
+  </si>
+  <si>
     <t>这个第十章看不懂咋办，[大哭][大哭]</t>
   </si>
   <si>
+    <t>2025-03-23 15:42:55</t>
+  </si>
+  <si>
+    <t>朴成训的正牌女友</t>
+  </si>
+  <si>
     <t>谁能给我发一下数据资料就是生成折线图那块的</t>
+  </si>
+  <si>
+    <t>2025-03-23 15:31:59</t>
   </si>
   <si>
     <t>import random
@@ -372,7 +421,16 @@
     print('三次全部猜错啦！')</t>
   </si>
   <si>
+    <t>2025-03-23 15:28:44</t>
+  </si>
+  <si>
+    <t>乄辰心</t>
+  </si>
+  <si>
     <t>if语句作业</t>
+  </si>
+  <si>
+    <t>2025-03-23 15:13:58</t>
   </si>
   <si>
     <t>age = 19
@@ -394,6 +452,9 @@
     print('抱歉，您的年零太小，不在领取礼物范围')</t>
   </si>
   <si>
+    <t>2025-03-23 15:05:16</t>
+  </si>
+  <si>
     <t>if int(input('您的身高是多少:'))&gt;120:
     print('您的身高超出限制，无法免费')
     print('如果您的VIP在3级以上，可免费游玩')
@@ -405,6 +466,9 @@
     print('祝您游玩愉快！')</t>
   </si>
   <si>
+    <t>2025-03-23 14:47:41</t>
+  </si>
+  <si>
     <t>if int(input('猜猜我的幸运数字是:'))==10:
     print('哈哈，猜对啦！牛')
 elif int(input('猜错了, 再猜最后一次:'))==10:
@@ -413,6 +477,9 @@
     print('恭喜！终于猜对了')
 else:
     print('sorry,全部猜错了,我想的是:10')</t>
+  </si>
+  <si>
+    <t>2025-03-23 14:16:41</t>
   </si>
   <si>
     <t>print('欢迎来到黑马动物园')
@@ -427,6 +494,9 @@
 print('祝您游玩愉快!')</t>
   </si>
   <si>
+    <t>2025-03-23 13:46:27</t>
+  </si>
+  <si>
     <t>print('欢迎来到黑马动物园')
 height=int(input('请输入您的身高(cm):'))
 if height&gt;=120:
@@ -434,6 +504,12 @@
 else:
     print('您的身高未超出120cm，可以免费游玩')
 print('祝您游玩愉快!')</t>
+  </si>
+  <si>
+    <t>2025-03-23 13:31:08</t>
+  </si>
+  <si>
+    <t>青丶兀</t>
   </si>
   <si>
     <t>name = "传智播客"
@@ -446,6 +522,9 @@
 print(message)</t>
   </si>
   <si>
+    <t>2025-03-23 12:58:07</t>
+  </si>
+  <si>
     <t>print('欢迎来到黑马游乐场，儿童免费，成人收费.')
 age=int(input('请输入您的年龄:'))
 if age&gt;=18:
@@ -456,9 +535,15 @@
     print('祝您游玩愉快!')</t>
   </si>
   <si>
+    <t>2025-03-23 12:53:16</t>
+  </si>
+  <si>
     <t>user_name=input('请输入您的用户名:')
 user_type=input('请输入您的用户类型:')
 print(f'您好:{user_name},您是尊贵的:{user_type}用户，欢迎您的光临。')</t>
+  </si>
+  <si>
+    <t>2025-03-23 12:24:58</t>
   </si>
   <si>
     <t>name='东方智能'
@@ -469,6 +554,12 @@
 seven=stock_price*(tiock_price_daily_factor**gorwth_days)
 print(f'公司:{name},股票代码:{stock_code},当前股价:{stock_price}')
 print('每日增长系数是:%.1f,经过%d天的增长后,股价达到了:%.2f'%(tiock_price_daily_factor,gorwth_days,seven))</t>
+  </si>
+  <si>
+    <t>2025-03-23 11:32:21</t>
+  </si>
+  <si>
+    <t>_玖违</t>
   </si>
   <si>
     <t>#发工资
@@ -486,7 +577,22 @@
         break</t>
   </si>
   <si>
+    <t>2025-03-23 11:32:17</t>
+  </si>
+  <si>
+    <t>墨翊流光</t>
+  </si>
+  <si>
     <t>up主的代码有一个问题，就是余额不足时，因为分数小于5，所以满足条件的员工会接着显示，所以要改一下，在循环开始前先判断公司余额[打call]</t>
+  </si>
+  <si>
+    <t>2025-03-22 23:11:54</t>
+  </si>
+  <si>
+    <t>中性</t>
+  </si>
+  <si>
+    <t>你会唱小星星ma-</t>
   </si>
   <si>
     <t># 计算程序练习
@@ -498,6 +604,12 @@
 print(f'''
 公司：{name}，股票代码：{stock_code}，当前股价：{stock_price}
 每日增长系数是：%.1f，经过%d天的增长后，股价达到了%.2f''' % (stock_price_daily_growth_factor,growth_days,stock_price*stock_price_daily_growth_factor**growth_days))</t>
+  </si>
+  <si>
+    <t>2025-03-22 22:40:24</t>
+  </si>
+  <si>
+    <t>Designerdaodao</t>
   </si>
   <si>
     <t>import random
@@ -515,6 +627,9 @@
         print("你猜测的数字小了！")
 else:
     print("哈哈，三次都没有猜中。")</t>
+  </si>
+  <si>
+    <t>2025-03-22 22:35:00</t>
   </si>
   <si>
     <t>print("公司要发礼物！")
@@ -536,19 +651,55 @@
     print("未成年人，不能领取！")</t>
   </si>
   <si>
+    <t>2025-03-22 22:07:45</t>
+  </si>
+  <si>
+    <t>雅馨00001</t>
+  </si>
+  <si>
     <t>老师，帮我看下，为什么我的time.sleep会报错，是需要我安装并导入软件包'time'吗？</t>
   </si>
   <si>
+    <t>2025-03-22 21:41:18</t>
+  </si>
+  <si>
+    <t>allbered</t>
+  </si>
+  <si>
     <t>谁有全国疫情数据，求</t>
   </si>
   <si>
+    <t>2025-03-22 21:08:12</t>
+  </si>
+  <si>
+    <t>内个黑狗真黑</t>
+  </si>
+  <si>
     <t>请问这里哪错了，感谢大佬</t>
   </si>
   <si>
+    <t>2025-03-22 19:04:56</t>
+  </si>
+  <si>
+    <t>第二小分队</t>
+  </si>
+  <si>
     <t>这个系列还更新吗？看到递归就没有了</t>
   </si>
   <si>
+    <t>2025-03-22 18:28:49</t>
+  </si>
+  <si>
+    <t>illopn</t>
+  </si>
+  <si>
     <t>不干大数据的是不是第三阶段就不用学了啊</t>
+  </si>
+  <si>
+    <t>2025-03-22 17:05:57</t>
+  </si>
+  <si>
+    <t>bili_40970996184</t>
   </si>
   <si>
     <t>PPT124的作业咋不讲捏！。。。。
@@ -575,16 +726,46 @@
 有没有老哥大概给看下可行不</t>
   </si>
   <si>
+    <t>2025-03-22 16:51:53</t>
+  </si>
+  <si>
+    <t>和高三死磕到底</t>
+  </si>
+  <si>
     <t>为什么我会报错[大哭]</t>
   </si>
   <si>
+    <t>2025-03-22 16:13:12</t>
+  </si>
+  <si>
+    <t>kunununununun</t>
+  </si>
+  <si>
     <t>用逗号也可以进行拼接吧</t>
   </si>
   <si>
+    <t>2025-03-22 14:34:28</t>
+  </si>
+  <si>
+    <t>空耳听风1号</t>
+  </si>
+  <si>
     <t>我这个是不是也可以啊@黑马程序员</t>
   </si>
   <si>
+    <t>2025-03-22 13:33:13</t>
+  </si>
+  <si>
+    <t>kansine0302</t>
+  </si>
+  <si>
     <t>领取资源</t>
+  </si>
+  <si>
+    <t>2025-03-22 13:20:14</t>
+  </si>
+  <si>
+    <t>likaqua</t>
   </si>
   <si>
     <t>list_1 = 【1,2,3,4,5,6,7,8,9,10】list_2 = 【】
@@ -601,6 +782,12 @@
 print(f"通过for循环，从列表：{list_1}中取出偶数，组成新列表：{list_3}")</t>
   </si>
   <si>
+    <t>2025-03-22 00:09:35</t>
+  </si>
+  <si>
+    <t>我与夏风皆过客1005X0805</t>
+  </si>
+  <si>
     <t>money = 10000  #奖金总额10000元
 count = 0 #发奖金次数
 for x in range(1, 21): #员工编号1-20，编号从1开始
@@ -615,8 +802,20 @@
         print(f"第{x}号职员，绩效分为{num},没有奖金")  交作业</t>
   </si>
   <si>
+    <t>2025-03-21 23:23:56</t>
+  </si>
+  <si>
+    <t>咯提副主任</t>
+  </si>
+  <si>
     <t>哪位大神知道
 给的代码文件怎么用在   pacharm软件里   老师讲的课后作业代码不会用   求解答</t>
+  </si>
+  <si>
+    <t>2025-03-21 22:07:35</t>
+  </si>
+  <si>
+    <t>Joker__大魔王</t>
   </si>
   <si>
     <t>print("欢迎来到梦龙游乐园")
@@ -627,228 +826,391 @@
     print("您的身高不足120cm,游玩不需要购票")print("祝您玩的开心！")</t>
   </si>
   <si>
+    <t>2025-03-21 21:35:56</t>
+  </si>
+  <si>
+    <t>缘在江湖</t>
+  </si>
+  <si>
     <t>这个还是有点难度的</t>
   </si>
   <si>
-    <t>2025-03-26 11:56:45</t>
-  </si>
-  <si>
-    <t>2025-03-26 01:21:58</t>
-  </si>
-  <si>
-    <t>2025-03-25 21:05:50</t>
-  </si>
-  <si>
-    <t>2025-03-25 20:52:36</t>
-  </si>
-  <si>
-    <t>2025-03-25 19:31:19</t>
-  </si>
-  <si>
-    <t>2025-03-25 18:27:34</t>
-  </si>
-  <si>
-    <t>2025-03-25 18:19:21</t>
-  </si>
-  <si>
-    <t>2025-03-25 17:30:34</t>
-  </si>
-  <si>
-    <t>2025-03-25 16:11:35</t>
-  </si>
-  <si>
-    <t>2025-03-25 11:41:58</t>
-  </si>
-  <si>
-    <t>2025-03-25 10:04:01</t>
-  </si>
-  <si>
-    <t>2025-03-24 22:41:55</t>
-  </si>
-  <si>
-    <t>2025-03-24 22:30:45</t>
-  </si>
-  <si>
-    <t>2025-03-24 20:22:19</t>
-  </si>
-  <si>
-    <t>2025-03-24 19:10:22</t>
-  </si>
-  <si>
-    <t>2025-03-24 18:12:00</t>
-  </si>
-  <si>
-    <t>2025-03-24 17:14:53</t>
-  </si>
-  <si>
-    <t>2025-03-24 16:13:22</t>
-  </si>
-  <si>
-    <t>2025-03-24 15:47:23</t>
-  </si>
-  <si>
-    <t>2025-03-24 15:13:31</t>
-  </si>
-  <si>
-    <t>2025-03-23 22:49:50</t>
-  </si>
-  <si>
-    <t>2025-03-23 21:00:13</t>
-  </si>
-  <si>
-    <t>2025-03-23 19:58:15</t>
-  </si>
-  <si>
-    <t>2025-03-23 17:54:22</t>
-  </si>
-  <si>
-    <t>2025-03-23 17:29:10</t>
-  </si>
-  <si>
-    <t>2025-03-23 16:51:18</t>
-  </si>
-  <si>
-    <t>2025-03-23 16:13:03</t>
-  </si>
-  <si>
-    <t>2025-03-23 15:42:55</t>
-  </si>
-  <si>
-    <t>2025-03-23 15:31:59</t>
-  </si>
-  <si>
-    <t>2025-03-23 15:28:44</t>
-  </si>
-  <si>
-    <t>2025-03-23 15:13:58</t>
-  </si>
-  <si>
-    <t>2025-03-23 15:05:16</t>
-  </si>
-  <si>
-    <t>2025-03-23 14:47:41</t>
-  </si>
-  <si>
-    <t>2025-03-23 14:16:41</t>
-  </si>
-  <si>
-    <t>2025-03-23 13:46:27</t>
-  </si>
-  <si>
-    <t>2025-03-23 13:31:08</t>
-  </si>
-  <si>
-    <t>2025-03-23 12:58:07</t>
-  </si>
-  <si>
-    <t>2025-03-23 12:53:16</t>
-  </si>
-  <si>
-    <t>2025-03-23 12:24:58</t>
-  </si>
-  <si>
-    <t>2025-03-23 11:32:21</t>
-  </si>
-  <si>
-    <t>2025-03-23 11:32:17</t>
-  </si>
-  <si>
-    <t>2025-03-22 23:11:54</t>
-  </si>
-  <si>
-    <t>2025-03-22 22:40:24</t>
-  </si>
-  <si>
-    <t>2025-03-22 22:35:00</t>
-  </si>
-  <si>
-    <t>2025-03-22 22:07:45</t>
-  </si>
-  <si>
-    <t>2025-03-22 21:41:18</t>
-  </si>
-  <si>
-    <t>2025-03-22 21:08:12</t>
-  </si>
-  <si>
-    <t>2025-03-22 19:04:56</t>
-  </si>
-  <si>
-    <t>2025-03-22 18:28:49</t>
-  </si>
-  <si>
-    <t>2025-03-22 17:05:57</t>
-  </si>
-  <si>
-    <t>2025-03-22 16:51:53</t>
-  </si>
-  <si>
-    <t>2025-03-22 16:13:12</t>
-  </si>
-  <si>
-    <t>2025-03-22 14:34:28</t>
-  </si>
-  <si>
-    <t>2025-03-22 13:33:13</t>
-  </si>
-  <si>
-    <t>2025-03-22 13:20:14</t>
-  </si>
-  <si>
-    <t>2025-03-22 00:09:35</t>
-  </si>
-  <si>
-    <t>2025-03-21 23:23:56</t>
-  </si>
-  <si>
-    <t>2025-03-21 22:07:35</t>
-  </si>
-  <si>
-    <t>2025-03-21 21:35:56</t>
-  </si>
-  <si>
     <t>2025-03-21 20:42:22</t>
-  </si>
-  <si>
-    <t>积极</t>
-  </si>
-  <si>
-    <t>消极</t>
-  </si>
-  <si>
-    <t>中性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -871,9 +1233,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -881,11 +1485,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1168,19 +1824,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,10 +1872,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>258722123424</v>
@@ -1226,33 +1887,36 @@
         <v>1366721937</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>258700121248</v>
@@ -1261,33 +1925,36 @@
         <v>507496017</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>258680004416</v>
@@ -1296,33 +1963,36 @@
         <v>520620473</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>257867335985</v>
@@ -1331,33 +2001,36 @@
         <v>660508270</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>257860828721</v>
@@ -1366,33 +2039,36 @@
         <v>176524060</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>258666516336</v>
@@ -1401,33 +2077,36 @@
         <v>1319675148</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>258665748464</v>
@@ -1436,33 +2115,36 @@
         <v>1366721937</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>258661830832</v>
@@ -1471,33 +2153,36 @@
         <v>170477948</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>257846128545</v>
@@ -1506,33 +2191,36 @@
         <v>1522393568</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>258638398624</v>
@@ -1541,33 +2229,36 @@
         <v>380756738</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>258632504448</v>
@@ -1576,33 +2267,36 @@
         <v>1280691044</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>257798426801</v>
@@ -1611,33 +2305,36 @@
         <v>1208469252</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>258606118240</v>
@@ -1646,33 +2343,36 @@
         <v>507496017</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>258595166464</v>
@@ -1681,33 +2381,36 @@
         <v>628375032</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>258589318992</v>
@@ -1716,33 +2419,36 @@
         <v>1212014035</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>61</v>
       </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>136</v>
-      </c>
       <c r="K16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>258584454624</v>
@@ -1751,33 +2457,36 @@
         <v>507496017</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>257772376833</v>
@@ -1786,33 +2495,36 @@
         <v>20714076</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>258576560128</v>
@@ -1821,33 +2533,36 @@
         <v>430122610</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>258574985296</v>
@@ -1856,68 +2571,74 @@
         <v>1862956846</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>258573007488</v>
       </c>
       <c r="C21">
-        <v>3493107188369411</v>
+        <v>3493107188369410</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>258527707568</v>
@@ -1926,33 +2647,36 @@
         <v>507496017</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>257712470625</v>
@@ -1961,86 +2685,92 @@
         <v>453988971</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>258513197376</v>
       </c>
       <c r="C24">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>257697816385</v>
       </c>
       <c r="C25">
-        <v>3493074843994467</v>
+        <v>3493074843994470</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
         <v>85</v>
@@ -2049,15 +2779,18 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>257696001617</v>
@@ -2066,33 +2799,36 @@
         <v>1028244589</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>258498264736</v>
@@ -2101,33 +2837,36 @@
         <v>389140424</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>257690502337</v>
@@ -2136,68 +2875,74 @@
         <v>650904081</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>258493533456</v>
       </c>
       <c r="C29">
-        <v>3546740309363547</v>
+        <v>3546740309363550</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>258492630656</v>
@@ -2206,68 +2951,74 @@
         <v>517733908</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>258492406896</v>
       </c>
       <c r="C31">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>258491441520</v>
@@ -2276,348 +3027,378 @@
         <v>356006031</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>258490636400</v>
       </c>
       <c r="C33">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="K33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>258489496160</v>
       </c>
       <c r="C34">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>258487188240</v>
       </c>
       <c r="C35">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="K35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>258484851168</v>
       </c>
       <c r="C36">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="K36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>258483772320</v>
       </c>
       <c r="C37">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="K37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>257676422961</v>
       </c>
       <c r="C38">
-        <v>3493135283915391</v>
+        <v>3493135283915390</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="K38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>258480494544</v>
       </c>
       <c r="C39">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="K39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>258477833152</v>
       </c>
       <c r="C40">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>258473275920</v>
       </c>
       <c r="C41">
-        <v>3546791054150139</v>
+        <v>3546791054150140</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>257669066289</v>
@@ -2626,33 +3407,36 @@
         <v>1958656981</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>258440510416</v>
@@ -2661,33 +3445,36 @@
         <v>483736708</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="K43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>133</v>
+      </c>
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>257634710369</v>
@@ -2696,33 +3483,36 @@
         <v>229714771</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F44">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="K44" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>258437083808</v>
@@ -2731,33 +3521,36 @@
         <v>444784149</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="K45" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>258434683248</v>
@@ -2766,138 +3559,150 @@
         <v>444784149</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>258432340752</v>
       </c>
       <c r="C47">
-        <v>3546859536648536</v>
+        <v>3546859536648540</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="K47" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>257627049441</v>
       </c>
       <c r="C48">
-        <v>3494363021707598</v>
+        <v>3494363021707600</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="K48" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>258419094496</v>
       </c>
       <c r="C49">
-        <v>3546597457660107</v>
+        <v>3546597457660110</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>258415932320</v>
@@ -2906,33 +3711,36 @@
         <v>240143740</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K50" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>258409068736</v>
@@ -2941,68 +3749,74 @@
         <v>455624019</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>258408164832</v>
       </c>
       <c r="C52">
-        <v>3493132465342928</v>
+        <v>3493132465342930</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>258405248560</v>
@@ -3011,68 +3825,74 @@
         <v>646535130</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>257596969889</v>
       </c>
       <c r="C54">
-        <v>3546867323373863</v>
+        <v>3546867323373860</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>257592522689</v>
@@ -3081,33 +3901,36 @@
         <v>1275212658</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>258393014288</v>
@@ -3116,33 +3939,36 @@
         <v>488160511</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>258356626112</v>
@@ -3151,33 +3977,36 @@
         <v>452106815</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>258352946160</v>
@@ -3186,68 +4015,74 @@
         <v>3433244</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>257546422273</v>
       </c>
       <c r="C59">
-        <v>3546852949493988</v>
+        <v>3546852949493990</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K59" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>258343476576</v>
@@ -3256,33 +4091,36 @@
         <v>364289427</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>257539354113</v>
@@ -3291,31 +4129,35 @@
         <v>477706478</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F61">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K61" t="s">
-        <v>182</v>
+        <v>18</v>
+      </c>
+      <c r="L61" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>